--- a/natmiOut/OldD0/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.999766893178</v>
+        <v>4.276772</v>
       </c>
       <c r="H2">
-        <v>3.999766893178</v>
+        <v>12.830316</v>
       </c>
       <c r="I2">
-        <v>0.05775040608209154</v>
+        <v>0.06135676581847978</v>
       </c>
       <c r="J2">
-        <v>0.05775040608209154</v>
+        <v>0.06135676581847978</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N2">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q2">
-        <v>126.976636231639</v>
+        <v>145.7128139375026</v>
       </c>
       <c r="R2">
-        <v>126.976636231639</v>
+        <v>1311.415325437524</v>
       </c>
       <c r="S2">
-        <v>0.02892906819188351</v>
+        <v>0.03173043359670333</v>
       </c>
       <c r="T2">
-        <v>0.02892906819188351</v>
+        <v>0.03173043359670333</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.999766893178</v>
+        <v>4.276772</v>
       </c>
       <c r="H3">
-        <v>3.999766893178</v>
+        <v>12.830316</v>
       </c>
       <c r="I3">
-        <v>0.05775040608209154</v>
+        <v>0.06135676581847978</v>
       </c>
       <c r="J3">
-        <v>0.05775040608209154</v>
+        <v>0.06135676581847978</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N3">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P3">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q3">
-        <v>110.4682152397814</v>
+        <v>118.404558375684</v>
       </c>
       <c r="R3">
-        <v>110.4682152397814</v>
+        <v>1065.641025381156</v>
       </c>
       <c r="S3">
-        <v>0.02516795708682517</v>
+        <v>0.02578378576024235</v>
       </c>
       <c r="T3">
-        <v>0.02516795708682517</v>
+        <v>0.02578378576024236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.999766893178</v>
+        <v>4.276772</v>
       </c>
       <c r="H4">
-        <v>3.999766893178</v>
+        <v>12.830316</v>
       </c>
       <c r="I4">
-        <v>0.05775040608209154</v>
+        <v>0.06135676581847978</v>
       </c>
       <c r="J4">
-        <v>0.05775040608209154</v>
+        <v>0.06135676581847978</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N4">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q4">
-        <v>16.03556679426513</v>
+        <v>17.64578022198533</v>
       </c>
       <c r="R4">
-        <v>16.03556679426513</v>
+        <v>158.812021997868</v>
       </c>
       <c r="S4">
-        <v>0.003653380803382862</v>
+        <v>0.003842546461534094</v>
       </c>
       <c r="T4">
-        <v>0.003653380803382862</v>
+        <v>0.003842546461534094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.3660632429885</v>
+        <v>36.44531133333333</v>
       </c>
       <c r="H5">
-        <v>36.3660632429885</v>
+        <v>109.335934</v>
       </c>
       <c r="I5">
-        <v>0.5250693292830718</v>
+        <v>0.5228631389891535</v>
       </c>
       <c r="J5">
-        <v>0.5250693292830718</v>
+        <v>0.5228631389891535</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N5">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q5">
-        <v>1154.477375033424</v>
+        <v>1241.718957477358</v>
       </c>
       <c r="R5">
-        <v>1154.477375033424</v>
+        <v>11175.47061729622</v>
       </c>
       <c r="S5">
-        <v>0.2630244090527163</v>
+        <v>0.2703968159101098</v>
       </c>
       <c r="T5">
-        <v>0.2630244090527163</v>
+        <v>0.2703968159101099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.3660632429885</v>
+        <v>36.44531133333333</v>
       </c>
       <c r="H6">
-        <v>36.3660632429885</v>
+        <v>109.335934</v>
       </c>
       <c r="I6">
-        <v>0.5250693292830718</v>
+        <v>0.5228631389891535</v>
       </c>
       <c r="J6">
-        <v>0.5250693292830718</v>
+        <v>0.5228631389891535</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N6">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P6">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q6">
-        <v>1004.382057514864</v>
+        <v>1009.006557583066</v>
       </c>
       <c r="R6">
-        <v>1004.382057514864</v>
+        <v>9081.059018247592</v>
       </c>
       <c r="S6">
-        <v>0.2288282151335796</v>
+        <v>0.2197213457682567</v>
       </c>
       <c r="T6">
-        <v>0.2288282151335796</v>
+        <v>0.2197213457682568</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>36.3660632429885</v>
+        <v>36.44531133333333</v>
       </c>
       <c r="H7">
-        <v>36.3660632429885</v>
+        <v>109.335934</v>
       </c>
       <c r="I7">
-        <v>0.5250693292830718</v>
+        <v>0.5228631389891535</v>
       </c>
       <c r="J7">
-        <v>0.5250693292830718</v>
+        <v>0.5228631389891535</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N7">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q7">
-        <v>145.7961055610598</v>
+        <v>150.3718117098202</v>
       </c>
       <c r="R7">
-        <v>145.7961055610598</v>
+        <v>1353.346305388382</v>
       </c>
       <c r="S7">
-        <v>0.03321670509677592</v>
+        <v>0.03274497731078682</v>
       </c>
       <c r="T7">
-        <v>0.03321670509677592</v>
+        <v>0.03274497731078682</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.8937156320897</v>
+        <v>28.98126466666666</v>
       </c>
       <c r="H8">
-        <v>28.8937156320897</v>
+        <v>86.943794</v>
       </c>
       <c r="I8">
-        <v>0.4171802646348367</v>
+        <v>0.4157800951923667</v>
       </c>
       <c r="J8">
-        <v>0.4171802646348367</v>
+        <v>0.4157800951923668</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N8">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q8">
-        <v>917.2601596992627</v>
+        <v>987.4133168771959</v>
       </c>
       <c r="R8">
-        <v>917.2601596992627</v>
+        <v>8886.719851894764</v>
       </c>
       <c r="S8">
-        <v>0.2089792460813829</v>
+        <v>0.215019200007424</v>
       </c>
       <c r="T8">
-        <v>0.2089792460813829</v>
+        <v>0.2150192000074241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.8937156320897</v>
+        <v>28.98126466666666</v>
       </c>
       <c r="H9">
-        <v>28.8937156320897</v>
+        <v>86.943794</v>
       </c>
       <c r="I9">
-        <v>0.4171802646348367</v>
+        <v>0.4157800951923667</v>
       </c>
       <c r="J9">
-        <v>0.4171802646348367</v>
+        <v>0.4157800951923668</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N9">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P9">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q9">
-        <v>798.0058045299381</v>
+        <v>802.3607159852058</v>
       </c>
       <c r="R9">
-        <v>798.0058045299381</v>
+        <v>7221.246443866853</v>
       </c>
       <c r="S9">
-        <v>0.1818095440380958</v>
+        <v>0.1747221313706259</v>
       </c>
       <c r="T9">
-        <v>0.1818095440380958</v>
+        <v>0.174722131370626</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.8937156320897</v>
+        <v>28.98126466666666</v>
       </c>
       <c r="H10">
-        <v>28.8937156320897</v>
+        <v>86.943794</v>
       </c>
       <c r="I10">
-        <v>0.4171802646348367</v>
+        <v>0.4157800951923667</v>
       </c>
       <c r="J10">
-        <v>0.4171802646348367</v>
+        <v>0.4157800951923668</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N10">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q10">
-        <v>115.8385274259676</v>
+        <v>119.5754711411291</v>
       </c>
       <c r="R10">
-        <v>115.8385274259676</v>
+        <v>1076.179240270162</v>
       </c>
       <c r="S10">
-        <v>0.026391474515358</v>
+        <v>0.02603876381431674</v>
       </c>
       <c r="T10">
-        <v>0.026391474515358</v>
+        <v>0.02603876381431675</v>
       </c>
     </row>
   </sheetData>
